--- a/AltiumProject/Project Outputs/7404337-01_3MOA/ASSY/Bill of Materials-7404337_RZ_G2(7404337-01_3MOA).xlsx
+++ b/AltiumProject/Project Outputs/7404337-01_3MOA/ASSY/Bill of Materials-7404337_RZ_G2(7404337-01_3MOA).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeagher\Documents\Projects\RomeoZeroGenII\7404337_RZ_G2\Project Outputs\7404337-01_3MOA\ASSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeagher\Documents\Projects\RomeoZeroGenII\7404337_RZ_G2_HW\AltiumProject\Project Outputs\7404337-01_3MOA\ASSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF6D8EEB-0489-44B3-8879-6D43874F0025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E72F8435-87EB-4C9E-AA1E-BE82A610A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24450" yWindow="630" windowWidth="18900" windowHeight="11055" xr2:uid="{C33A4133-FC89-4A97-96FB-2F815A88658C}"/>
+    <workbookView xWindow="2400" yWindow="2175" windowWidth="17280" windowHeight="10050" xr2:uid="{895041B5-4BC4-44F1-81E3-4138EDB0C579}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-7404337_RZ_G2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="103">
   <si>
     <t>Designator</t>
   </si>
@@ -260,7 +260,7 @@
     <t>311-80.6KLRCT-ND</t>
   </si>
   <si>
-    <t>R11, R12, R13</t>
+    <t>R11, R12</t>
   </si>
   <si>
     <t>RES 0OHM 1% 1/16W 0402</t>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>RES SMD 20K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>RC0402FR-0720KL</t>
+  </si>
+  <si>
+    <t>311-20.0KLRCT-ND</t>
   </si>
   <si>
     <t>SW1</t>
@@ -708,8 +723,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AD7A9E-5C22-491C-A92C-DAD39FD8C5CF}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205BB99E-2ADE-4384-AE55-95C7087BE01F}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1079,7 +1094,7 @@
         <v>73</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>74</v>
@@ -1110,57 +1125,59 @@
       <c r="C17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>91</v>
@@ -1179,17 +1196,41 @@
       <c r="D20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>97</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
